--- a/data/trans_camb/CoPsoQ_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/CoPsoQ_R2-Provincia-trans_camb.xlsx
@@ -612,19 +612,19 @@
         <v>-5.496255695504376</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-1.540642898001832</v>
+        <v>-1.540642898001837</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.5879997489943278</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.293438836524434</v>
+        <v>6.29343883652444</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-2.876837742567434</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.957952067491048</v>
+        <v>1.957952067491042</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-18.3412059874037</v>
+        <v>-17.44852551662903</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-19.20801004653043</v>
+        <v>-19.28130319043911</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.79296679969022</v>
+        <v>-14.57032495329182</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.518593675299801</v>
+        <v>-11.50197717848134</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-12.07063988034986</v>
+        <v>-12.77515291163994</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-11.1858116227379</v>
+        <v>-10.09204524811401</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.717254251156006</v>
+        <v>6.617631232562202</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.69545790384576</v>
+        <v>18.2691380102531</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.07774972021628</v>
+        <v>17.41973111476161</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24.24935387944174</v>
+        <v>23.25731573298636</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.174587066279349</v>
+        <v>6.301081337119157</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.69574914280281</v>
+        <v>15.19306670700386</v>
       </c>
     </row>
     <row r="7">
@@ -690,19 +690,19 @@
         <v>-0.1313123976558929</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.03680787868614231</v>
+        <v>-0.03680787868614244</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.01394025409759159</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.1492043775169164</v>
+        <v>0.1492043775169165</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.0685163870395351</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04663168856417699</v>
+        <v>0.04663168856417686</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3824671056919217</v>
+        <v>-0.374188936035056</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4180171458335531</v>
+        <v>-0.4225299589277353</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2957361157380186</v>
+        <v>-0.2855304131855176</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2114996593373277</v>
+        <v>-0.2320434063160655</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.253288182297141</v>
+        <v>-0.2704692650555496</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2485140621383973</v>
+        <v>-0.215927225837806</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2122260109077274</v>
+        <v>0.1746652508843914</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4773250835919022</v>
+        <v>0.4881653052822595</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.455774640484444</v>
+        <v>0.5430517456080126</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7406860297289705</v>
+        <v>0.6791507483267749</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2140939801579851</v>
+        <v>0.1756316114983567</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.414445063991127</v>
+        <v>0.4037980317107402</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>-4.978722018409732</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-24.7651762914856</v>
+        <v>-24.76517629148559</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-20.19429144561942</v>
+        <v>-21.14445652622425</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-50.01184522359519</v>
+        <v>-49.55589597698947</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.74136978078102</v>
+        <v>-10.66224289114279</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-27.96681419603193</v>
+        <v>-26.68742208624289</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-13.0257198681592</v>
+        <v>-13.85776789525134</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-34.99259927922026</v>
+        <v>-35.87438086939176</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.368338724059098</v>
+        <v>1.491610368102104</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-18.48365046657348</v>
+        <v>-16.77765827004218</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.48936256079467</v>
+        <v>15.17748552324663</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.786371828754402</v>
+        <v>5.555533079566358</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.476769744933287</v>
+        <v>4.104613954315138</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-12.06558270087404</v>
+        <v>-11.1555248737102</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3031921602470489</v>
+        <v>-0.3127708436101888</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.779973514032103</v>
+        <v>-0.7712318965141396</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1797940497944146</v>
+        <v>-0.1747401347511982</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4545702675578928</v>
+        <v>-0.4512353654175073</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2010240529133891</v>
+        <v>-0.2178177619546228</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5674760588426405</v>
+        <v>-0.5808478550734307</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.02353972257881446</v>
+        <v>0.02608546331829249</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.310821551227709</v>
+        <v>-0.2814305177825703</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2841954426146309</v>
+        <v>0.3029075451120577</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.09053184950072896</v>
+        <v>0.1048747425490995</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06303961208512432</v>
+        <v>0.07817486881055596</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.217302335309669</v>
+        <v>-0.2010948396902517</v>
       </c>
     </row>
     <row r="16">
@@ -938,13 +938,13 @@
         <v>1.821114849621702</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.624814906833779</v>
+        <v>4.624814906833774</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-8.010904460315377</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-16.13531573332738</v>
+        <v>-16.13531573332739</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-25.84898477290438</v>
+        <v>-25.37227017639527</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-47.55637764167745</v>
+        <v>-49.27596121509896</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.27731430217935</v>
+        <v>-13.90495297357426</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-14.50013695194908</v>
+        <v>-13.99471622584913</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-17.56280502370511</v>
+        <v>-17.21614736280558</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-28.62916107547792</v>
+        <v>-29.54454437065136</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.762746796135507</v>
+        <v>-1.503349905941311</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-13.126931747775</v>
+        <v>-11.40609765015187</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.17045361390536</v>
+        <v>17.89339439972189</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23.12611291574875</v>
+        <v>23.17142040024429</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8120575958311709</v>
+        <v>2.1701008910676</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.7226899019385679</v>
+        <v>-3.243440422341821</v>
       </c>
     </row>
     <row r="19">
@@ -1016,13 +1016,13 @@
         <v>0.04653492728034773</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.1181778433245353</v>
+        <v>0.1181778433245351</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.159675483018171</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.3216134140823737</v>
+        <v>-0.3216134140823738</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.417193812778782</v>
+        <v>-0.4112887918131061</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8049718280006168</v>
+        <v>-0.8151400466790136</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2777109476752247</v>
+        <v>-0.288469487148573</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3284733677932531</v>
+        <v>-0.307855382726659</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.32117466394713</v>
+        <v>-0.3155793282160573</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5418521869415189</v>
+        <v>-0.5512658334227707</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.03248496378301224</v>
+        <v>-0.02650217983346501</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.2396340680363751</v>
+        <v>-0.2023225052846171</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5827551575237557</v>
+        <v>0.6744124625463862</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7009703761552143</v>
+        <v>0.7363811189514532</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.01744083235498567</v>
+        <v>0.04740912786504413</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.01651723693896196</v>
+        <v>-0.05587079838905707</v>
       </c>
     </row>
     <row r="22">
@@ -1092,13 +1092,13 @@
         <v>-11.58879907240695</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-19.91851170879627</v>
+        <v>-19.91851170879628</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-7.580593195517244</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-9.985026602056839</v>
+        <v>-9.985026602056852</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-9.943517848197391</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-23.8726368675303</v>
+        <v>-25.52450667228231</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-40.51377747973002</v>
+        <v>-38.32242328081801</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-22.66818777733016</v>
+        <v>-21.65498505041468</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-29.52782563131178</v>
+        <v>-30.03332992101522</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-19.64649115108937</v>
+        <v>-20.12882731709923</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-30.30111121680655</v>
+        <v>-29.39913683376922</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.969451567530182</v>
+        <v>2.021898438584341</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.2936235633064195</v>
+        <v>1.945966652174962</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.330277019737388</v>
+        <v>7.969133938578765</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.119388002225826</v>
+        <v>10.58020454052576</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.8189523834417813</v>
+        <v>-0.08123526571735792</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.615877338770956</v>
+        <v>-0.4471924424399144</v>
       </c>
     </row>
     <row r="25">
@@ -1170,13 +1170,13 @@
         <v>-0.2048626960409972</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.352112413399593</v>
+        <v>-0.3521124133995931</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.1508899989856342</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>-0.1987497040135109</v>
+        <v>-0.1987497040135111</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1843300642323562</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.393139606509382</v>
+        <v>-0.4205781432272404</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.676125476909779</v>
+        <v>-0.6473728030761638</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3911496675279449</v>
+        <v>-0.3893464647751309</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5367071028698679</v>
+        <v>-0.5422416711890217</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3499033846984727</v>
+        <v>-0.3480644545988768</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5324041928741318</v>
+        <v>-0.5158423747407165</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.04125639737945361</v>
+        <v>0.0382051037382372</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.002978745647831856</v>
+        <v>0.03896695188411298</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1718004607575087</v>
+        <v>0.1847262894441177</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1852881470716023</v>
+        <v>0.2402973424607512</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.01767475962909116</v>
+        <v>-0.000713697106657162</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.02002729274271451</v>
+        <v>-0.0056483633117078</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>9.920022583054008</v>
+        <v>13.55928826189653</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-18.24563357952553</v>
+        <v>-16.47998212472887</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.137393085301127</v>
+        <v>-5.896198476733347</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-51.63181694561214</v>
+        <v>-49.70541347992294</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>9.172318131913249</v>
+        <v>9.600726685657946</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-27.32808503621719</v>
+        <v>-27.2311234078269</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>42.446839003794</v>
+        <v>42.91497354935586</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>24.59831300424253</v>
+        <v>23.56708346118334</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>30.62879411536611</v>
+        <v>31.31721835787488</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-12.04100663026859</v>
+        <v>-12.50245713931479</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>34.38263724174461</v>
+        <v>34.43585089678581</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.031822473451645</v>
+        <v>1.140140109949489</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2357961887029575</v>
+        <v>0.3114999461349692</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4579630240353205</v>
+        <v>-0.429385299624353</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1339884828777754</v>
+        <v>-0.1057530869515708</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.9062728391299955</v>
+        <v>-0.9015224432052917</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1945608605970542</v>
+        <v>0.1978764413045842</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6176614709311674</v>
+        <v>-0.6351143578280279</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.72446726528981</v>
+        <v>1.597373033660848</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8505945634922936</v>
+        <v>0.8784685633634751</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8248967795394171</v>
+        <v>0.9115812118193667</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.2635704280518385</v>
+        <v>-0.2817982165992687</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.089611822732393</v>
+        <v>1.086362608625218</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04247389670160667</v>
+        <v>0.03369941792158589</v>
       </c>
     </row>
     <row r="34">
@@ -1412,19 +1412,19 @@
         <v>-4.656364692658565</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-11.1601176225099</v>
+        <v>-11.16011762250991</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>18.28137083159508</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>15.60162558168033</v>
+        <v>15.60162558168032</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>3.26640053590278</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-2.028947856651953</v>
+        <v>-2.028947856651964</v>
       </c>
     </row>
     <row r="35">
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-18.09739657474485</v>
+        <v>-18.11252815860114</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-30.89847474364484</v>
+        <v>-30.82610116302606</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.625417115912224</v>
+        <v>0.7143480374351684</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-9.287553370561783</v>
+        <v>-8.224147350684447</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-7.303806780059162</v>
+        <v>-7.872697061181576</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-17.8507685458166</v>
+        <v>-16.33413452831484</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.212136302680474</v>
+        <v>8.476717398360124</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7.769920957243022</v>
+        <v>6.942088509720314</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>34.34155004733523</v>
+        <v>35.77588239408821</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>37.23449901094454</v>
+        <v>37.66316806099342</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>14.71663412382222</v>
+        <v>14.34006922693549</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>11.79093820519263</v>
+        <v>13.97758205267328</v>
       </c>
     </row>
     <row r="37">
@@ -1490,19 +1490,19 @@
         <v>-0.07965420783426479</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.1909108042932728</v>
+        <v>-0.1909108042932729</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>0.4486691455275569</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.3829017026707635</v>
+        <v>0.3829017026707632</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06199069995706759</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.03850596288721345</v>
+        <v>-0.03850596288721365</v>
       </c>
     </row>
     <row r="38">
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2802081415064187</v>
+        <v>-0.2816980186291561</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.485946946859481</v>
+        <v>-0.4844607912926076</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.0121253548193328</v>
+        <v>0.007166828473508001</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.169095979986126</v>
+        <v>-0.180441359017579</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1263383129925181</v>
+        <v>-0.1322826290437894</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3172456108528278</v>
+        <v>-0.2933732870290727</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1783847666339259</v>
+        <v>0.1725880439380561</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1456683574088979</v>
+        <v>0.1294621476193502</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.122066558270761</v>
+        <v>1.241058415106109</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.143168331757908</v>
+        <v>1.188109712718708</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3227943775727349</v>
+        <v>0.3111428363833406</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2513879729267156</v>
+        <v>0.2837212737901406</v>
       </c>
     </row>
     <row r="40">
@@ -1578,7 +1578,7 @@
         <v>4.327006563559949</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1.939312722992848</v>
+        <v>1.939312722992864</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>-3.215878173872183</v>
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-17.32608515658258</v>
+        <v>-17.38451836005269</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-31.03251482298065</v>
+        <v>-33.79358519113401</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-5.145628525010597</v>
+        <v>-5.454298216649745</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-10.12017752082707</v>
+        <v>-10.54110323803497</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-9.255812378852593</v>
+        <v>-9.337908441653543</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-18.36883857292568</v>
+        <v>-17.48351389499451</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.03712317894793715</v>
+        <v>0.2833368811573384</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-5.128809141896367</v>
+        <v>-5.922333466509045</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13.73653378033056</v>
+        <v>13.80021351563135</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>13.00051785703037</v>
+        <v>13.86498662204434</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.925549645313337</v>
+        <v>3.04959440032951</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-0.983656010604101</v>
+        <v>-0.4577278367472384</v>
       </c>
     </row>
     <row r="43">
@@ -1656,7 +1656,7 @@
         <v>0.09688951441019955</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>0.04342472452034116</v>
+        <v>0.04342472452034153</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>-0.06343379103479621</v>
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2888965690768053</v>
+        <v>-0.2898965165786609</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5397122708132139</v>
+        <v>-0.5863072880160918</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.105539675688209</v>
+        <v>-0.1091902061046039</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2081664317007405</v>
+        <v>-0.2199614722768141</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.17077800800928</v>
+        <v>-0.1741592422567985</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3463080979076034</v>
+        <v>-0.3282038491288813</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.00365904618734355</v>
+        <v>0.005616100557221891</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.09373601983226452</v>
+        <v>-0.1027644233746319</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3457278993299499</v>
+        <v>0.3574115020767847</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3210702108367645</v>
+        <v>0.3497723228054788</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.05993748526095398</v>
+        <v>0.06620549117969592</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.02006488414256195</v>
+        <v>-0.007581306437175956</v>
       </c>
     </row>
     <row r="46">
@@ -1732,13 +1732,13 @@
         <v>8.198829592026657</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>-21.34235863297266</v>
+        <v>-21.34235863297267</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>-1.266748348035962</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>-20.74049915743722</v>
+        <v>-20.74049915743723</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>4.235177978882454</v>
@@ -1755,22 +1755,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.736309331415052</v>
+        <v>1.918834122249311</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-31.2552509958533</v>
+        <v>-31.40157636191195</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-8.787575701876527</v>
+        <v>-10.05176645740847</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-30.85851839879816</v>
+        <v>-31.78644697896441</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.8833723780049322</v>
+        <v>-0.7028930131942628</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-28.59777092354636</v>
+        <v>-28.90338019964419</v>
       </c>
     </row>
     <row r="48">
@@ -1781,22 +1781,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>14.72278166935087</v>
+        <v>14.81573621236649</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-10.88675535400046</v>
+        <v>-11.00170682873705</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>7.050765896370177</v>
+        <v>6.236617820060478</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-9.503287453598137</v>
+        <v>-10.31062466069344</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>9.560052486164269</v>
+        <v>9.309517393092207</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-14.09269617785082</v>
+        <v>-13.77888956433346</v>
       </c>
     </row>
     <row r="49">
@@ -1810,13 +1810,13 @@
         <v>0.1147469602823517</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>-0.2986976068841627</v>
+        <v>-0.2986976068841629</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>-0.01706591731038488</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>-0.2794206474756596</v>
+        <v>-0.2794206474756598</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.05833026794557409</v>
@@ -1833,22 +1833,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.02304467792598926</v>
+        <v>0.02584340341054625</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.4247466119625692</v>
+        <v>-0.4257714155148929</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1131998610217866</v>
+        <v>-0.1264832939422249</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.4076415303341799</v>
+        <v>-0.4217165034036096</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.01222777011451278</v>
+        <v>-0.009602629857692852</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.3885382805712952</v>
+        <v>-0.3893755579208802</v>
       </c>
     </row>
     <row r="51">
@@ -1859,22 +1859,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2174723218190215</v>
+        <v>0.2212145334362547</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1546408045130657</v>
+        <v>-0.1471733061873772</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.103374146371332</v>
+        <v>0.09043215477112038</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.1371195541650577</v>
+        <v>-0.1461512299715834</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1361027060367936</v>
+        <v>0.1335907971479769</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.1996361572687258</v>
+        <v>-0.1976921568906777</v>
       </c>
     </row>
     <row r="52">
@@ -1898,13 +1898,13 @@
         <v>0.8298477705573459</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>-8.239211413688357</v>
+        <v>-8.239211413688363</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>-1.677147505142307</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-14.12154502993145</v>
+        <v>-14.12154502993144</v>
       </c>
     </row>
     <row r="53">
@@ -1915,22 +1915,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-7.055479504430121</v>
+        <v>-6.839684495663458</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-24.79427350572375</v>
+        <v>-24.23368594677924</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-3.888542743644757</v>
+        <v>-3.515379985297443</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-14.68964532636131</v>
+        <v>-13.53007683258175</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-4.911252252084349</v>
+        <v>-4.483505815804632</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-18.44993309731659</v>
+        <v>-17.93779617339913</v>
       </c>
     </row>
     <row r="54">
@@ -1941,22 +1941,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.2883752933930088</v>
+        <v>0.6546052387816298</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-12.56402667782401</v>
+        <v>-12.34872033286951</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>5.311821280738668</v>
+        <v>5.628392623099194</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>-2.780219168129322</v>
+        <v>-2.577365656624906</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.243597110107899</v>
+        <v>1.337234300485262</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-10.24885886843489</v>
+        <v>-9.961262715174961</v>
       </c>
     </row>
     <row r="55">
@@ -1970,19 +1970,19 @@
         <v>-0.05758101723920725</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>-0.3183758216646825</v>
+        <v>-0.3183758216646824</v>
       </c>
       <c r="E55" s="6" t="n">
         <v>0.01527380875757614</v>
       </c>
       <c r="F55" s="6" t="n">
-        <v>-0.1516472585826128</v>
+        <v>-0.1516472585826129</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>-0.02957825578442411</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.249048261817099</v>
+        <v>-0.2490482618170988</v>
       </c>
     </row>
     <row r="56">
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.1175790412205048</v>
+        <v>-0.1132422947562476</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.4197461758547619</v>
+        <v>-0.4073571304473841</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.06779966299147135</v>
+        <v>-0.06239273115914028</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.2586083908549655</v>
+        <v>-0.241069286939567</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.08322134105862188</v>
+        <v>-0.07690681030702681</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.3171622431873322</v>
+        <v>-0.3137974886877652</v>
       </c>
     </row>
     <row r="57">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.005020926538946749</v>
+        <v>0.01163386576826247</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.2194271226312442</v>
+        <v>-0.2164796818253255</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.1012521272503888</v>
+        <v>0.1075619361955191</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>-0.05163415930329423</v>
+        <v>-0.04813086795335494</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.02256371355792044</v>
+        <v>0.02487361922579345</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.1830870962130983</v>
+        <v>-0.1787838083094914</v>
       </c>
     </row>
     <row r="58">
